--- a/edison/assets/xmls/ts_readingsOnlyXmlExport.xlsx
+++ b/edison/assets/xmls/ts_readingsOnlyXmlExport.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thinkSharp\midas\edison\assets\xmls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3713D5-CABE-480F-AEBB-EFFB6099C7D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71841D06-DA4E-4373-8AFD-77050A1C9BF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="2" activeTab="3" xr2:uid="{A34B8A57-CA01-49D2-848A-926D3A0481C4}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{A34B8A57-CA01-49D2-848A-926D3A0481C4}"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterInfo" sheetId="1" r:id="rId1"/>
     <sheet name="SyllabusMap" sheetId="3" r:id="rId2"/>
     <sheet name="Assignments" sheetId="5" r:id="rId3"/>
     <sheet name="Readings" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Videos" sheetId="6" r:id="rId5"/>
+    <sheet name="Quizzes" sheetId="7" r:id="rId6"/>
+    <sheet name="References" sheetId="8" r:id="rId7"/>
+    <sheet name="ContentProviders" sheetId="9" r:id="rId8"/>
+    <sheet name="RoughSheet" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -759,24 +763,6 @@
     <t>3rd Maths- Marathi.pdf</t>
   </si>
   <si>
-    <t>http://localhost:8888/1st Math- Marathi.pdf.pdf</t>
-  </si>
-  <si>
-    <t>http://localhost:8888/1st Maths- English.pdf.pdf</t>
-  </si>
-  <si>
-    <t>http://localhost:8888/2nd Maths- English.pdf.pdf</t>
-  </si>
-  <si>
-    <t>http://localhost:8888/2nd Math_ Marathi.pdf.pdf</t>
-  </si>
-  <si>
-    <t>http://localhost:8888/3rd Maths- English.pdf.pdf</t>
-  </si>
-  <si>
-    <t>http://localhost:8888/3rd Maths- Marathi.pdf.pdf</t>
-  </si>
-  <si>
     <t>Common Resource for computer education</t>
   </si>
   <si>
@@ -790,13 +776,142 @@
   </si>
   <si>
     <t>67,68</t>
+  </si>
+  <si>
+    <t>1st Math- Marathi</t>
+  </si>
+  <si>
+    <t>1st Maths- English</t>
+  </si>
+  <si>
+    <t>2nd Maths- English</t>
+  </si>
+  <si>
+    <t>2nd Math_ Marathi</t>
+  </si>
+  <si>
+    <t>3rd Maths- English</t>
+  </si>
+  <si>
+    <t>3rd Maths- Marathi</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/1st Math- Marathi.pdf</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/1st Maths- English.pdf</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/2nd Maths- English.pdf</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/2nd Math_ Marathi.pdf</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/3rd Maths- English.pdf</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/3rd Maths- Marathi.pdf</t>
+  </si>
+  <si>
+    <t>VideoTitle</t>
+  </si>
+  <si>
+    <t>Yet Ani Yet Nahi</t>
+  </si>
+  <si>
+    <t>can be left blank</t>
+  </si>
+  <si>
+    <t>The Video covers story of two village girls</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Yamuchi Safar</t>
+  </si>
+  <si>
+    <t>The video cexplains about jungal safari</t>
+  </si>
+  <si>
+    <t>Welcome Song</t>
+  </si>
+  <si>
+    <t>https://www.digitalsakshar.com/TopicSelection?competencyid=CMP780</t>
+  </si>
+  <si>
+    <t>Our first lesson is also a ‘Welcome Song’. So let’s start singing this wonderful poem. Sing a welcome song Ring a joyful bell. Ding dong ding everybody sing For a new day begins. Come together one and all Ding dong ding dong ding dong ding. Happy song of joy we bring Ding dong ding dong ding dong ding. Everyday is a new day and we should always be hopeful that every new day will bring happiness to us</t>
+  </si>
+  <si>
+    <t>ENGLISH WORDS WE KNOW</t>
+  </si>
+  <si>
+    <t>https://www.digitalsakshar.com/TopicSelection?competencyid=CMP782</t>
+  </si>
+  <si>
+    <t>Do you know what we are going to learn today? Today we will learn the names of a few things we usually see in our day to day life. I will show you some pictures and you have to tell me what object it is.</t>
+  </si>
+  <si>
+    <t>D:/midas/edison/assets/videos/YET_ANI_YET_NAHI.mp4</t>
+  </si>
+  <si>
+    <t>Reference Title</t>
+  </si>
+  <si>
+    <t>Reference Link</t>
+  </si>
+  <si>
+    <t>Divisibility Tests-Khan Academy</t>
+  </si>
+  <si>
+    <t>https://www.khanacademy.org/math/pre-algebra/pre-algebra-factors-multiples/pre-algebra-divisibility-tests/v/divisibility-tests-for-2-3-4-5-6-9-10</t>
+  </si>
+  <si>
+    <t>Ordinals-YouTube</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=e3WZ-0-CwtY</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Shortname</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Comment1</t>
+  </si>
+  <si>
+    <t>Comment2</t>
+  </si>
+  <si>
+    <t>ThinkSharp Foundation</t>
+  </si>
+  <si>
+    <t>ThinkSharp</t>
+  </si>
+  <si>
+    <t>any other relevant info</t>
+  </si>
+  <si>
+    <t>Pratham Infotech Foundation</t>
+  </si>
+  <si>
+    <t>Pratham</t>
+  </si>
+  <si>
+    <t>Maharashtra State Board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +940,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -865,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -875,6 +996,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1490,7 +1618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5807AD03-5A11-4761-A8C0-1EEEB020F274}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -3741,7 +3869,7 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E59">
         <v>9</v>
@@ -3757,7 +3885,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -3773,7 +3901,7 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E61">
         <v>11</v>
@@ -4178,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE981A29-B954-44FE-881A-C4E568289643}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5493,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.75">
@@ -5513,7 +5641,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.75">
@@ -5527,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -5547,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -5567,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E66">
         <v>3</v>
@@ -5587,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -5607,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -5627,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -5649,11 +5777,326 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80071615-7DBB-44EF-9A2F-D88292881C00}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{AEA5E17C-194D-4A8A-8EC8-5C082C3D0DAB}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{CDEC9F99-0D17-487E-8679-77D8AB4836DB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86908D0-C1F2-4F71-AE7F-DF6950334D6A}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BF5C51-18C1-4767-8D31-BCBD37B57561}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="6.86328125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="58.40625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2205C550-83E5-45FB-8D88-EC463F81C14C}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11349977-F177-4168-BA52-E75D7DDFCDD6}">
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77:E82"/>
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6996,74 +7439,74 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B77" s="5" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="2"/>
-        <v>http://localhost:8888/1st Math- Marathi.pdf.pdf</v>
+        <v>http://localhost:8888/1st Math- Marathi.pdf</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B78" s="6" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="2"/>
-        <v>http://localhost:8888/1st Maths- English.pdf.pdf</v>
+        <v>http://localhost:8888/1st Maths- English.pdf</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B79" s="5" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="2"/>
-        <v>http://localhost:8888/2nd Maths- English.pdf.pdf</v>
+        <v>http://localhost:8888/2nd Maths- English.pdf</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B80" s="6" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="2"/>
-        <v>http://localhost:8888/2nd Math_ Marathi.pdf.pdf</v>
+        <v>http://localhost:8888/2nd Math_ Marathi.pdf</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B81" s="5" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="2"/>
-        <v>http://localhost:8888/3rd Maths- English.pdf.pdf</v>
+        <v>http://localhost:8888/3rd Maths- English.pdf</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.75">
       <c r="B82" s="6" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="2"/>
-        <v>http://localhost:8888/3rd Maths- Marathi.pdf.pdf</v>
+        <v>http://localhost:8888/3rd Maths- Marathi.pdf</v>
       </c>
     </row>
   </sheetData>
